--- a/www/admin.yun.com/public/files/销售导入模板.xlsx
+++ b/www/admin.yun.com/public/files/销售导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13420"/>
+    <workbookView windowWidth="16800" windowHeight="15380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>姓名</t>
   </si>
@@ -37,18 +37,6 @@
     <t>新增时间</t>
   </si>
   <si>
-    <t>李雷锋</t>
-  </si>
-  <si>
-    <t>总经理</t>
-  </si>
-  <si>
-    <t>demo123456</t>
-  </si>
-  <si>
-    <t>abc123456789</t>
-  </si>
-  <si>
     <t>11010120101101321X</t>
   </si>
 </sst>
@@ -58,9 +46,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -100,8 +88,101 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,101 +196,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,13 +225,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,25 +333,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,19 +345,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,109 +393,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,7 +426,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,17 +446,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,22 +496,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,124 +515,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,19 +641,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1004,7 +992,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1038,24 +1026,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" spans="6:7">
+      <c r="F2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B2">
-        <v>13912345678</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G2" s="2">
         <v>44511</v>

--- a/www/admin.yun.com/public/files/销售导入模板.xlsx
+++ b/www/admin.yun.com/public/files/销售导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16800" windowHeight="15380"/>
+    <workbookView windowWidth="24080" windowHeight="15380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>姓名</t>
   </si>
@@ -36,9 +36,6 @@
   <si>
     <t>新增时间</t>
   </si>
-  <si>
-    <t>11010120101101321X</t>
-  </si>
 </sst>
 </file>
 
@@ -46,9 +43,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -82,38 +79,22 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,9 +108,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,16 +170,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,37 +190,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,187 +216,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,15 +419,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -442,26 +430,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,17 +449,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,150 +472,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -992,7 +989,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -1027,12 +1024,8 @@
       </c>
     </row>
     <row r="2" spans="6:7">
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2">
-        <v>44511</v>
-      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/www/admin.yun.com/public/files/销售导入模板.xlsx
+++ b/www/admin.yun.com/public/files/销售导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24080" windowHeight="15380"/>
+    <workbookView windowHeight="17020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>姓名</t>
   </si>
@@ -36,18 +36,21 @@
   <si>
     <t>新增时间</t>
   </si>
+  <si>
+    <t>推荐人登录账号</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -56,47 +59,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.2"/>
-      <color rgb="FF696969"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -108,6 +112,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -118,9 +130,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,7 +145,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,41 +181,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,20 +198,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,13 +212,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,169 +350,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,6 +411,24 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,15 +463,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -475,8 +480,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -496,175 +503,158 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -986,21 +976,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16.5178571428571" customWidth="1"/>
     <col min="2" max="4" width="21.7232142857143" customWidth="1"/>
     <col min="5" max="6" width="34.2232142857143" customWidth="1"/>
     <col min="7" max="7" width="18.4464285714286" customWidth="1"/>
+    <col min="8" max="8" width="22.9107142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1022,10 +1013,9 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="6:7">
-      <c r="F2" s="1"/>
-      <c r="G2" s="2"/>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/www/admin.yun.com/public/files/销售导入模板.xlsx
+++ b/www/admin.yun.com/public/files/销售导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17020"/>
+    <workbookView windowWidth="28060" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <t>新增时间</t>
   </si>
   <si>
-    <t>推荐人登录账号</t>
+    <t>推荐人系统工号</t>
   </si>
 </sst>
 </file>
@@ -46,8 +46,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -74,6 +74,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -85,6 +100,90 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -96,108 +195,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,43 +218,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,31 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,97 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,20 +415,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -444,21 +441,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,6 +471,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -508,142 +508,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -979,7 +979,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>

--- a/www/admin.yun.com/public/files/销售导入模板.xlsx
+++ b/www/admin.yun.com/public/files/销售导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12720"/>
+    <workbookView windowWidth="28000" windowHeight="13420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -67,28 +67,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -100,30 +78,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,7 +90,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,43 +141,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -195,6 +149,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -212,187 +212,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,17 +415,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,35 +463,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -503,150 +477,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -979,7 +979,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
